--- a/auto_api/testcase/report.xlsx
+++ b/auto_api/testcase/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -23,85 +23,106 @@
     <t>测试概括</t>
   </si>
   <si>
+    <t>通过总数</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
     <t>WEB</t>
   </si>
   <si>
-    <t>项目名称</t>
-  </si>
-  <si>
-    <t>通过总数</t>
+    <t>接口版本</t>
+  </si>
+  <si>
+    <t>脚本语言</t>
+  </si>
+  <si>
+    <t>接口总数</t>
+  </si>
+  <si>
+    <t>v1.0</t>
+  </si>
+  <si>
+    <t>测试日期</t>
   </si>
   <si>
     <t>失败总数</t>
   </si>
   <si>
-    <t>wifi</t>
+    <t>2017-09-08 15:39:32</t>
+  </si>
+  <si>
+    <t>接口测试</t>
+  </si>
+  <si>
+    <t>测试网络</t>
   </si>
   <si>
     <t>分数</t>
   </si>
   <si>
-    <t>v1.0</t>
-  </si>
-  <si>
-    <t>测试日期</t>
-  </si>
-  <si>
-    <t>接口总数</t>
-  </si>
-  <si>
-    <t>测试网络</t>
-  </si>
-  <si>
-    <t>接口测试</t>
-  </si>
-  <si>
-    <t>接口版本</t>
-  </si>
-  <si>
-    <t>脚本语言</t>
-  </si>
-  <si>
-    <t>2017-08-21 10:45:50</t>
-  </si>
-  <si>
     <t>60</t>
   </si>
   <si>
     <t>测试详情</t>
   </si>
   <si>
+    <t>实际值</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>预期值</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>登录用户UID</t>
+  </si>
+  <si>
+    <t>用例描述</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
     <t>用例ID</t>
   </si>
   <si>
-    <t>接口名称</t>
-  </si>
-  <si>
-    <t>参数</t>
-  </si>
-  <si>
-    <t>登录用户UID</t>
-  </si>
-  <si>
-    <t>实际值</t>
-  </si>
-  <si>
-    <t>测试结果</t>
-  </si>
-  <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>用例描述</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>预期值</t>
+    <t>送礼</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{'code': 118, 'message': '您剩余的仙豆数量不足！', 'status': False}</t>
+  </si>
+  <si>
+    <t>普通用户赠送爱心</t>
+  </si>
+  <si>
+    <t>test_gift_01</t>
+  </si>
+  <si>
+    <t>{'gift': 0, 'cid': 119462, 'isbag': 0, 't_count': 1}</t>
+  </si>
+  <si>
+    <t>/chatnew/sendGift</t>
   </si>
 </sst>
 </file>
@@ -241,7 +262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -630,30 +651,30 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -661,13 +682,13 @@
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -676,16 +697,16 @@
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -702,7 +723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -731,37 +752,69 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3">
+        <v>5336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
